--- a/static/excel/player_list.xlsx
+++ b/static/excel/player_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laksh Data D\Programming\Projects\TournamentTracker\Tournament\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925EA3D-1BDF-4854-939F-B179887579FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A3A7B-F7CE-4E8C-87A8-958703021F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2520" windowWidth="21600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/excel/player_list.xlsx
+++ b/static/excel/player_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laksh Data D\Programming\Projects\TournamentTracker\Tournament\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A3A7B-F7CE-4E8C-87A8-958703021F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57DDC36-D93F-4D7F-A35F-B390D04E37C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>fullname</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>role</t>
+  </si>
+  <si>
+    <t>event</t>
   </si>
 </sst>
 </file>
@@ -106,10 +109,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,11 +393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,10 +407,11 @@
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="7" width="18.28515625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -426,15 +430,21 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input!" error="This column can only have the value of 'Male' or 'Female'" sqref="E1:E1048576" xr:uid="{4E0F3A7C-88AD-4738-A857-8F478967BC3D}">
       <formula1>"Male, Female"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input!" error="This column can only have the value of 'Starting' or 'Substitute'" sqref="F1:F1048576" xr:uid="{4142BA6E-AD21-4CEE-BC1F-BA39D0E1B9B2}">
       <formula1>"Starting, Substitute"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{A65571E4-520B-427F-88DC-8F3CA01E8ED7}">
+      <formula1>"Singles, Doubles, Reverse Singles"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
